--- a/files/202309/excel_20230911.xlsx
+++ b/files/202309/excel_20230911.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7E5629-75E8-47CD-93D0-5F4CC936A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADF680A-B786-4687-B4E0-2AF67B305B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -368,35 +369,41 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.46875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.17578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.9375" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>25</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>123456</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>